--- a/second-order/1893/June1893.xlsx
+++ b/second-order/1893/June1893.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27909"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metoffice-my.sharepoint.com/personal/catherine_ross_metoffice_gov_uk/Documents/2nd Order Stations/1893/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12839" documentId="13_ncr:1_{A95562E1-6493-4A20-AE83-E5A8C66B4E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{932D7FC8-3A9E-4203-AED0-428B16BD1D9D}"/>
+  <xr:revisionPtr revIDLastSave="13657" documentId="13_ncr:1_{A95562E1-6493-4A20-AE83-E5A8C66B4E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1B520E1-9B08-47A4-AADF-F03FDEC62177}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="1" activeTab="20" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="14" activeTab="16" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Deerness" sheetId="15" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4416" uniqueCount="98">
   <si>
     <t>Barometer</t>
   </si>
@@ -172,6 +172,9 @@
     <t>Means</t>
   </si>
   <si>
+    <t>mean 29.802</t>
+  </si>
+  <si>
     <t>Dunrobin Castle</t>
   </si>
   <si>
@@ -196,6 +199,12 @@
     <t>Dundee</t>
   </si>
   <si>
+    <t>Mean 29.802</t>
+  </si>
+  <si>
+    <t>mean 29.808</t>
+  </si>
+  <si>
     <t>Glasgow</t>
   </si>
   <si>
@@ -203,6 +212,9 @@
   </si>
   <si>
     <t>Scarborough</t>
+  </si>
+  <si>
+    <t>mean 29.81</t>
   </si>
   <si>
     <t>Cronkbourne</t>
@@ -221,6 +233,9 @@
   </si>
   <si>
     <t>5-7</t>
+  </si>
+  <si>
+    <t>mean 29.843</t>
   </si>
   <si>
     <t>Stonyhurst</t>
@@ -262,19 +277,40 @@
     <t>NWbyW</t>
   </si>
   <si>
+    <t>mean 29.611</t>
+  </si>
+  <si>
     <t>Hillington</t>
   </si>
   <si>
     <t>Churchstoke</t>
   </si>
   <si>
+    <t>mean 29.423</t>
+  </si>
+  <si>
     <t>Carmarthen</t>
+  </si>
+  <si>
+    <t>mean 29.792</t>
   </si>
   <si>
     <t>Margate</t>
   </si>
   <si>
+    <t>mean 29.925</t>
+  </si>
+  <si>
+    <t>mean 29.927</t>
+  </si>
+  <si>
     <t>Southampton</t>
+  </si>
+  <si>
+    <t>mean 29.938</t>
+  </si>
+  <si>
+    <t>mean 29.947</t>
   </si>
   <si>
     <t>Plymouth</t>
@@ -283,16 +319,34 @@
     <t>NbyW</t>
   </si>
   <si>
+    <t>Mean 29.824</t>
+  </si>
+  <si>
     <t>Londonderry</t>
   </si>
   <si>
+    <t>Mean 29.907</t>
+  </si>
+  <si>
+    <t>mean 29.904</t>
+  </si>
+  <si>
     <t>Armagh</t>
+  </si>
+  <si>
+    <t>mean 29.774</t>
+  </si>
+  <si>
+    <t>mean 29.771</t>
   </si>
   <si>
     <t>Markree Castle</t>
   </si>
   <si>
     <t>Dublin Phoenix Park</t>
+  </si>
+  <si>
+    <t>mean 29.844</t>
   </si>
   <si>
     <t>Parsonstown</t>
@@ -885,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3218,6 +3272,11 @@
       </c>
       <c r="W35" s="13">
         <v>0.41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="F36" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3238,9 +3297,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F58535-F46B-4397-857F-B5B0AFE46BF9}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
@@ -3380,7 +3439,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -3428,7 +3487,7 @@
         <v>82</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R5" s="1">
         <v>2</v>
@@ -3451,7 +3510,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -3499,13 +3558,13 @@
         <v>69</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T6" s="6">
         <v>2</v>
@@ -3522,7 +3581,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -3570,7 +3629,7 @@
         <v>90</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
@@ -3593,7 +3652,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -3641,13 +3700,13 @@
         <v>88</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T8" s="6">
         <v>1</v>
@@ -3664,7 +3723,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -3712,7 +3771,7 @@
         <v>76</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
@@ -3735,7 +3794,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -3783,7 +3842,7 @@
         <v>86</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
@@ -3806,7 +3865,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -3860,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="T11" s="6">
         <v>1</v>
@@ -3877,7 +3936,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -3931,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T12" s="6">
         <v>1</v>
@@ -3948,7 +4007,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -3996,13 +4055,13 @@
         <v>88</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T13" s="6">
         <v>1</v>
@@ -4019,7 +4078,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -4067,13 +4126,13 @@
         <v>74</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="R14" s="1">
         <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="T14" s="6">
         <v>1</v>
@@ -4090,7 +4149,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -4144,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="T15" s="6">
         <v>1</v>
@@ -4161,7 +4220,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -4209,13 +4268,13 @@
         <v>82</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="T16" s="6">
         <v>1</v>
@@ -4232,7 +4291,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -4280,13 +4339,13 @@
         <v>62</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="R17" s="1">
         <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T17" s="6">
         <v>2</v>
@@ -4303,7 +4362,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -4351,7 +4410,7 @@
         <v>72</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="R18" s="1">
         <v>2</v>
@@ -4374,7 +4433,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -4422,13 +4481,13 @@
         <v>60</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R19" s="1">
         <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="T19" s="6">
         <v>1</v>
@@ -4445,7 +4504,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -4499,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T20" s="6">
         <v>1</v>
@@ -4516,7 +4575,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -4564,7 +4623,7 @@
         <v>78</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R21" s="1">
         <v>1</v>
@@ -4587,7 +4646,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -4658,7 +4717,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -4706,13 +4765,13 @@
         <v>80</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="R23" s="1">
         <v>2</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="T23" s="6">
         <v>1</v>
@@ -4729,7 +4788,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -4777,13 +4836,13 @@
         <v>81</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R24" s="1">
         <v>1</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T24" s="6">
         <v>1</v>
@@ -4800,7 +4859,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -4848,7 +4907,7 @@
         <v>86</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
@@ -4871,7 +4930,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -4919,13 +4978,13 @@
         <v>93</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T26" s="6">
         <v>1</v>
@@ -4942,7 +5001,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -4990,7 +5049,7 @@
         <v>85</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
@@ -5013,7 +5072,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -5061,13 +5120,13 @@
         <v>80</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R28" s="1">
         <v>2</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T28" s="6">
         <v>3</v>
@@ -5084,7 +5143,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -5138,7 +5197,7 @@
         <v>3</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T29" s="6">
         <v>1</v>
@@ -5155,7 +5214,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -5203,13 +5262,13 @@
         <v>71</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="T30" s="6">
         <v>2</v>
@@ -5226,7 +5285,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -5274,7 +5333,7 @@
         <v>79</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="R31" s="1">
         <v>3</v>
@@ -5297,7 +5356,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -5345,13 +5404,13 @@
         <v>93</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R32" s="1">
         <v>5</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T32" s="6">
         <v>2</v>
@@ -5368,7 +5427,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -5416,13 +5475,13 @@
         <v>83</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R33" s="1">
         <v>4</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T33" s="6">
         <v>1</v>
@@ -5439,7 +5498,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -5487,13 +5546,13 @@
         <v>64</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R34" s="1">
         <v>1</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T34" s="6">
         <v>1</v>
@@ -5571,6 +5630,11 @@
       </c>
       <c r="W35" s="13">
         <v>2.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="F36" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5592,8 +5656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2D65C3-F0FC-43D4-8EDF-7503FE5358F7}">
   <dimension ref="A2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="M21" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5732,7 +5796,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -5786,7 +5850,7 @@
         <v>2</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T5" s="6">
         <v>0.5</v>
@@ -5803,7 +5867,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -5851,7 +5915,7 @@
         <v>78</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R6" s="1">
         <v>3</v>
@@ -5874,7 +5938,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -5945,7 +6009,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -5993,7 +6057,7 @@
         <v>93</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
@@ -6016,7 +6080,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -6070,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T9" s="6">
         <v>1</v>
@@ -6087,7 +6151,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -6158,7 +6222,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -6229,7 +6293,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -6300,7 +6364,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -6348,13 +6412,13 @@
         <v>96</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T13" s="6">
         <v>2</v>
@@ -6371,7 +6435,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -6419,13 +6483,13 @@
         <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R14" s="1">
         <v>3</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T14" s="6">
         <v>1</v>
@@ -6442,7 +6506,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -6490,13 +6554,13 @@
         <v>86</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R15" s="1">
         <v>3</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T15" s="6">
         <v>2</v>
@@ -6513,7 +6577,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -6561,7 +6625,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R16" s="1">
         <v>3</v>
@@ -6584,7 +6648,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -6655,7 +6719,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -6709,7 +6773,7 @@
         <v>5</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T18" s="6">
         <v>5</v>
@@ -6726,7 +6790,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -6774,13 +6838,13 @@
         <v>96</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R19" s="1">
         <v>3</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T19" s="6">
         <v>1</v>
@@ -6797,7 +6861,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -6851,7 +6915,7 @@
         <v>2</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T20" s="6">
         <v>0.5</v>
@@ -6868,7 +6932,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -6916,13 +6980,13 @@
         <v>49</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R21" s="1">
         <v>0.5</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T21" s="6">
         <v>1</v>
@@ -6939,7 +7003,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -6987,7 +7051,7 @@
         <v>66</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R22" s="1">
         <v>4</v>
@@ -7010,7 +7074,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -7058,13 +7122,13 @@
         <v>92</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R23" s="1">
         <v>0.5</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T23" s="6">
         <v>2</v>
@@ -7081,7 +7145,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -7129,13 +7193,13 @@
         <v>98</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R24" s="1">
         <v>3</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T24" s="6">
         <v>0.5</v>
@@ -7152,7 +7216,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -7223,7 +7287,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -7271,7 +7335,7 @@
         <v>69</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R26" s="1">
         <v>3</v>
@@ -7294,7 +7358,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -7365,7 +7429,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -7436,7 +7500,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -7507,7 +7571,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -7555,13 +7619,13 @@
         <v>71</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R30" s="1">
         <v>0.5</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T30" s="6">
         <v>1</v>
@@ -7578,7 +7642,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -7626,13 +7690,13 @@
         <v>90</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R31" s="1">
         <v>4</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T31" s="6">
         <v>3</v>
@@ -7649,7 +7713,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -7697,13 +7761,13 @@
         <v>66</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R32" s="1">
         <v>6</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T32" s="6">
         <v>4</v>
@@ -7720,7 +7784,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -7791,7 +7855,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -7942,10 +8006,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD0F272-B8A4-46FC-A472-771D73413392}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="K21" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8084,7 +8148,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -8155,7 +8219,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -8203,7 +8267,7 @@
         <v>79</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R6" s="1">
         <v>2</v>
@@ -8226,7 +8290,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -8274,7 +8338,7 @@
         <v>84</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
@@ -8297,7 +8361,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -8345,13 +8409,13 @@
         <v>85</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T8" s="6">
         <v>2</v>
@@ -8368,7 +8432,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -8439,7 +8503,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -8487,7 +8551,7 @@
         <v>87</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
@@ -8510,7 +8574,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -8564,7 +8628,7 @@
         <v>0.5</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T11" s="6">
         <v>1</v>
@@ -8581,7 +8645,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -8652,7 +8716,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -8723,7 +8787,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -8777,7 +8841,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T14" s="6">
         <v>1</v>
@@ -8794,7 +8858,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -8865,7 +8929,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -8936,7 +9000,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -8990,7 +9054,7 @@
         <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T17" s="6">
         <v>2</v>
@@ -9007,7 +9071,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -9078,7 +9142,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -9149,7 +9213,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -9220,7 +9284,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -9291,7 +9355,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -9362,7 +9426,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -9433,7 +9497,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -9504,7 +9568,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -9575,7 +9639,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -9629,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T26" s="6">
         <v>1</v>
@@ -9646,7 +9710,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -9700,7 +9764,7 @@
         <v>2</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T27" s="6">
         <v>2</v>
@@ -9717,7 +9781,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -9765,13 +9829,13 @@
         <v>87</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R28" s="1">
         <v>2</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T28" s="6">
         <v>2</v>
@@ -9788,7 +9852,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -9859,7 +9923,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -9930,7 +9994,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -9978,13 +10042,13 @@
         <v>88</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R31" s="1">
         <v>4</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T31" s="6">
         <v>3</v>
@@ -10001,7 +10065,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -10049,13 +10113,13 @@
         <v>88</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R32" s="1">
         <v>2</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T32" s="6">
         <v>4</v>
@@ -10072,7 +10136,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -10143,7 +10207,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -10275,6 +10339,11 @@
       </c>
       <c r="W35" s="13">
         <v>1.139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="F36" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -10294,10 +10363,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD84A6CC-49D4-47FD-9DBF-F07FCE349F1A}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="N26" workbookViewId="0">
-      <selection activeCell="AF36" sqref="AF36"/>
+    <sheetView topLeftCell="K21" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10436,7 +10505,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -10507,7 +10576,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -10555,7 +10624,7 @@
         <v>86</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
@@ -10578,7 +10647,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -10649,7 +10718,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -10703,7 +10772,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T8" s="6">
         <v>2</v>
@@ -10720,7 +10789,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -10791,7 +10860,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -10862,7 +10931,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -10933,7 +11002,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -11004,7 +11073,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -11075,7 +11144,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -11146,7 +11215,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -11200,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T15" s="6">
         <v>1</v>
@@ -11217,7 +11286,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -11288,7 +11357,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -11359,7 +11428,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -11430,7 +11499,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -11501,7 +11570,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -11572,7 +11641,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -11643,7 +11712,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -11714,7 +11783,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -11785,7 +11854,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -11856,7 +11925,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -11910,7 +11979,7 @@
         <v>2</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T25" s="6">
         <v>1</v>
@@ -11927,7 +11996,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -11975,13 +12044,13 @@
         <v>81</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T26" s="6">
         <v>1</v>
@@ -11998,7 +12067,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -12069,7 +12138,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -12140,7 +12209,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -12211,7 +12280,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -12282,7 +12351,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -12330,13 +12399,13 @@
         <v>90</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R31" s="1">
         <v>3</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T31" s="6">
         <v>5</v>
@@ -12353,7 +12422,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -12401,7 +12470,7 @@
         <v>92</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R32" s="1">
         <v>4</v>
@@ -12424,7 +12493,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -12495,7 +12564,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -12627,6 +12696,11 @@
       </c>
       <c r="W35" s="13">
         <v>2.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="F36" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -12646,10 +12720,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F522100-1AF0-43D4-A080-F24B7139868C}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="N30" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12788,7 +12862,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -12859,7 +12933,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -12913,7 +12987,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T6" s="6">
         <v>2</v>
@@ -12930,7 +13004,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -12978,7 +13052,7 @@
         <v>89</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R7" s="1">
         <v>3</v>
@@ -13001,7 +13075,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -13072,7 +13146,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -13143,7 +13217,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -13197,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T10" s="6">
         <v>1</v>
@@ -13214,7 +13288,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -13262,7 +13336,7 @@
         <v>92</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R11" s="1">
         <v>2</v>
@@ -13285,7 +13359,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -13333,13 +13407,13 @@
         <v>93</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R12" s="1">
         <v>2</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T12" s="6">
         <v>3</v>
@@ -13356,7 +13430,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -13404,7 +13478,7 @@
         <v>98</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R13" s="1">
         <v>2</v>
@@ -13427,7 +13501,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -13481,7 +13555,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T14" s="6">
         <v>2</v>
@@ -13498,7 +13572,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -13546,13 +13620,13 @@
         <v>85</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R15" s="1">
         <v>2</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T15" s="6">
         <v>2</v>
@@ -13569,7 +13643,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -13617,13 +13691,13 @@
         <v>86</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T16" s="6">
         <v>2</v>
@@ -13640,7 +13714,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -13694,7 +13768,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T17" s="6">
         <v>4</v>
@@ -13711,7 +13785,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -13782,7 +13856,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -13830,13 +13904,13 @@
         <v>90</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R19" s="1">
         <v>2</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T19" s="6">
         <v>2</v>
@@ -13853,7 +13927,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -13924,7 +13998,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -13978,7 +14052,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T21" s="6">
         <v>1</v>
@@ -13995,7 +14069,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -14043,13 +14117,13 @@
         <v>83</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R22" s="1">
         <v>1</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T22" s="6">
         <v>1</v>
@@ -14066,7 +14140,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -14114,7 +14188,7 @@
         <v>83</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R23" s="1">
         <v>1</v>
@@ -14137,7 +14211,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -14185,13 +14259,13 @@
         <v>75</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R24" s="1">
         <v>2</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T24" s="6">
         <v>2</v>
@@ -14208,7 +14282,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -14262,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T25" s="6">
         <v>1</v>
@@ -14279,7 +14353,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -14350,7 +14424,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -14398,13 +14472,13 @@
         <v>97</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R27" s="1">
         <v>4</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T27" s="6">
         <v>3</v>
@@ -14421,7 +14495,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -14475,7 +14549,7 @@
         <v>4</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T28" s="6">
         <v>3</v>
@@ -14492,7 +14566,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -14546,7 +14620,7 @@
         <v>3</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T29" s="6">
         <v>1</v>
@@ -14563,7 +14637,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -14634,7 +14708,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -14682,13 +14756,13 @@
         <v>90</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R31" s="1">
         <v>4</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T31" s="6">
         <v>1</v>
@@ -14705,7 +14779,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -14753,13 +14827,13 @@
         <v>79</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R32" s="1">
         <v>3</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T32" s="6">
         <v>3</v>
@@ -14776,7 +14850,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -14824,7 +14898,7 @@
         <v>75</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R33" s="1">
         <v>3</v>
@@ -14847,7 +14921,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -14979,6 +15053,14 @@
       </c>
       <c r="W35" s="13">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -14998,10 +15080,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42ABBC7C-B157-4A4E-8414-C98E473BD393}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="F27" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15140,7 +15222,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -15188,13 +15270,13 @@
         <v>73</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R5" s="1">
         <v>1.5</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T5" s="6">
         <v>2</v>
@@ -15211,7 +15293,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -15282,7 +15364,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -15353,7 +15435,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -15424,7 +15506,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -15495,7 +15577,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -15566,7 +15648,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -15637,7 +15719,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -15685,7 +15767,7 @@
         <v>74</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R12" s="1">
         <v>1.5</v>
@@ -15708,7 +15790,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -15756,13 +15838,13 @@
         <v>75</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T13" s="6">
         <v>1.5</v>
@@ -15779,7 +15861,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -15827,7 +15909,7 @@
         <v>84</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R14" s="1">
         <v>3</v>
@@ -15850,7 +15932,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -15898,7 +15980,7 @@
         <v>83</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R15" s="1">
         <v>3.5</v>
@@ -15921,7 +16003,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -15992,7 +16074,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -16063,7 +16145,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -16111,13 +16193,13 @@
         <v>70</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R18" s="1">
         <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T18" s="6">
         <v>0.1</v>
@@ -16134,7 +16216,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -16182,13 +16264,13 @@
         <v>78</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R19" s="1">
         <v>1.5</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T19" s="6">
         <v>0.1</v>
@@ -16205,7 +16287,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -16253,7 +16335,7 @@
         <v>63</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R20" s="1">
         <v>2</v>
@@ -16276,7 +16358,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -16347,7 +16429,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -16418,7 +16500,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -16489,7 +16571,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -16560,7 +16642,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -16608,13 +16690,13 @@
         <v>75</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R25" s="1">
         <v>2</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T25" s="6">
         <v>1.5</v>
@@ -16631,7 +16713,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -16685,7 +16767,7 @@
         <v>1.5</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T26" s="6">
         <v>1.5</v>
@@ -16702,7 +16784,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -16773,7 +16855,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -16844,7 +16926,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -16898,7 +16980,7 @@
         <v>3</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T29" s="6">
         <v>3</v>
@@ -16915,7 +16997,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -16986,7 +17068,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -17034,13 +17116,13 @@
         <v>94</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R31" s="1">
         <v>4</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T31" s="6">
         <v>4</v>
@@ -17057,7 +17139,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -17105,13 +17187,13 @@
         <v>82</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R32" s="1">
         <v>4.5</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T32" s="6">
         <v>3.5</v>
@@ -17128,7 +17210,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -17199,7 +17281,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -17331,6 +17413,14 @@
       </c>
       <c r="W35" s="13">
         <v>1.026</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -17350,10 +17440,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D9C1B2-8C1C-4225-9D26-AF6DAC2640AF}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="U27" workbookViewId="0">
-      <selection activeCell="AL36" sqref="AL36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17492,7 +17582,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -17563,7 +17653,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -17611,7 +17701,7 @@
         <v>86</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>25</v>
@@ -17634,7 +17724,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -17705,7 +17795,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -17776,7 +17866,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -17830,7 +17920,7 @@
         <v>25</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>25</v>
@@ -17847,7 +17937,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -17918,7 +18008,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -17989,7 +18079,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -18060,7 +18150,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -18131,7 +18221,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -18202,7 +18292,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -18256,7 +18346,7 @@
         <v>25</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="T15" s="6" t="s">
         <v>25</v>
@@ -18273,7 +18363,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -18327,7 +18417,7 @@
         <v>25</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>25</v>
@@ -18344,7 +18434,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -18415,7 +18505,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -18463,7 +18553,7 @@
         <v>92</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>25</v>
@@ -18486,7 +18576,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -18557,7 +18647,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -18628,7 +18718,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -18682,7 +18772,7 @@
         <v>25</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T21" s="6" t="s">
         <v>25</v>
@@ -18699,7 +18789,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -18747,13 +18837,13 @@
         <v>59</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T22" s="6" t="s">
         <v>25</v>
@@ -18770,7 +18860,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -18841,7 +18931,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -18912,7 +19002,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -18983,7 +19073,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -19054,7 +19144,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -19125,7 +19215,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -19196,7 +19286,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -19250,7 +19340,7 @@
         <v>25</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T29" s="6" t="s">
         <v>25</v>
@@ -19267,7 +19357,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -19315,7 +19405,7 @@
         <v>100</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>25</v>
@@ -19338,7 +19428,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -19386,13 +19476,13 @@
         <v>95</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T31" s="6" t="s">
         <v>25</v>
@@ -19409,7 +19499,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -19457,7 +19547,7 @@
         <v>88</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>25</v>
@@ -19480,7 +19570,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -19551,7 +19641,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -19683,6 +19773,11 @@
       </c>
       <c r="W35" s="13">
         <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="E36" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -19702,10 +19797,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B53C70-E59B-4757-99CF-9D169C92385B}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="P26" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="K21" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19844,7 +19939,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -19915,7 +20010,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -19963,7 +20058,7 @@
         <v>78</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
@@ -19986,7 +20081,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -20034,7 +20129,7 @@
         <v>91</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
@@ -20057,7 +20152,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -20105,13 +20200,13 @@
         <v>92</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8" s="1">
         <v>3</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T8" s="6">
         <v>2</v>
@@ -20128,7 +20223,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -20199,7 +20294,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -20247,13 +20342,13 @@
         <v>90</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T10" s="6">
         <v>1</v>
@@ -20270,7 +20365,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -20324,7 +20419,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T11" s="6">
         <v>1</v>
@@ -20341,7 +20436,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -20412,7 +20507,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -20483,7 +20578,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -20531,7 +20626,7 @@
         <v>88</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R14" s="1">
         <v>1</v>
@@ -20554,7 +20649,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -20625,7 +20720,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -20696,7 +20791,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -20767,7 +20862,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -20838,7 +20933,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -20892,7 +20987,7 @@
         <v>2</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T19" s="6">
         <v>1</v>
@@ -20909,7 +21004,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -20957,13 +21052,13 @@
         <v>85</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T20" s="6">
         <v>1</v>
@@ -20980,7 +21075,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -21051,7 +21146,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -21099,7 +21194,7 @@
         <v>87</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R22" s="1">
         <v>1</v>
@@ -21122,7 +21217,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -21193,7 +21288,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -21247,7 +21342,7 @@
         <v>2</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T24" s="6">
         <v>1</v>
@@ -21264,7 +21359,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -21312,7 +21407,7 @@
         <v>75</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
@@ -21335,7 +21430,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -21406,7 +21501,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -21477,7 +21572,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -21548,7 +21643,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -21619,7 +21714,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -21690,7 +21785,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -21738,7 +21833,7 @@
         <v>94</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R31" s="1">
         <v>2</v>
@@ -21761,7 +21856,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -21809,7 +21904,7 @@
         <v>85</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R32" s="1">
         <v>2</v>
@@ -21832,7 +21927,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -21903,7 +21998,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -21951,7 +22046,7 @@
         <v>75</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R34" s="1">
         <v>2</v>
@@ -22035,6 +22130,14 @@
       </c>
       <c r="W35" s="13">
         <v>2.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -22054,15 +22157,16 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5AAE48-C411-4E25-8B1D-2232EA02C65B}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="M26" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" s="2" customFormat="1" ht="30">
@@ -22196,7 +22300,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -22250,7 +22354,7 @@
         <v>0.5</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T5" s="6">
         <v>1</v>
@@ -22267,7 +22371,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -22338,7 +22442,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -22386,13 +22490,13 @@
         <v>90</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T7" s="6">
         <v>1</v>
@@ -22409,7 +22513,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -22457,13 +22561,13 @@
         <v>84</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T8" s="6">
         <v>1</v>
@@ -22480,7 +22584,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -22534,7 +22638,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T9" s="6">
         <v>1</v>
@@ -22551,7 +22655,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -22599,7 +22703,7 @@
         <v>98</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
@@ -22622,7 +22726,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -22670,7 +22774,7 @@
         <v>94</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R11" s="1">
         <v>0.5</v>
@@ -22693,7 +22797,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -22741,13 +22845,13 @@
         <v>94</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R12" s="1">
         <v>0.5</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T12" s="6">
         <v>0.5</v>
@@ -22764,7 +22868,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -22812,7 +22916,7 @@
         <v>88</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
@@ -22835,7 +22939,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -22906,7 +23010,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -22977,7 +23081,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -23048,7 +23152,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -23119,7 +23223,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -23190,7 +23294,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -23261,7 +23365,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -23309,7 +23413,7 @@
         <v>86</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
@@ -23332,7 +23436,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -23386,7 +23490,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T21" s="6">
         <v>1</v>
@@ -23403,7 +23507,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -23451,13 +23555,13 @@
         <v>88</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R22" s="1">
         <v>0.5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T22" s="6">
         <v>1</v>
@@ -23474,7 +23578,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -23545,7 +23649,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -23616,7 +23720,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -23687,7 +23791,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -23758,7 +23862,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -23829,7 +23933,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -23900,7 +24004,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -23971,7 +24075,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -24019,7 +24123,7 @@
         <v>99</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R30" s="1">
         <v>0.5</v>
@@ -24042,7 +24146,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -24090,7 +24194,7 @@
         <v>89</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R31" s="1">
         <v>1</v>
@@ -24113,7 +24217,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -24184,7 +24288,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -24255,7 +24359,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -24387,6 +24491,14 @@
       </c>
       <c r="W35" s="13">
         <v>1.593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="E36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -24408,8 +24520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413A142-C323-471B-8DE8-71C83ABC936E}">
   <dimension ref="A2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="H30" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24548,7 +24660,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -24619,7 +24731,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -24690,7 +24802,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -24761,7 +24873,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -24809,7 +24921,7 @@
         <v>92</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
@@ -24832,7 +24944,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -24880,13 +24992,13 @@
         <v>93</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R9" s="1">
         <v>0.5</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T9" s="6">
         <v>1</v>
@@ -24903,7 +25015,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -24974,7 +25086,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -25045,7 +25157,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -25099,7 +25211,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T12" s="6">
         <v>0.5</v>
@@ -25116,7 +25228,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -25164,7 +25276,7 @@
         <v>81</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R13" s="1">
         <v>0.5</v>
@@ -25187,7 +25299,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -25235,7 +25347,7 @@
         <v>93</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R14" s="1">
         <v>1</v>
@@ -25258,7 +25370,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -25329,7 +25441,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -25400,7 +25512,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -25471,7 +25583,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -25542,7 +25654,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -25596,7 +25708,7 @@
         <v>0.5</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T19" s="6">
         <v>2</v>
@@ -25613,7 +25725,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -25661,7 +25773,7 @@
         <v>92</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
@@ -25684,7 +25796,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -25755,7 +25867,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -25826,7 +25938,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -25897,7 +26009,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -25945,13 +26057,13 @@
         <v>72</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R24" s="1">
         <v>2</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T24" s="6">
         <v>1</v>
@@ -25968,7 +26080,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -26039,7 +26151,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -26087,7 +26199,7 @@
         <v>75</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R26" s="1">
         <v>0.5</v>
@@ -26110,7 +26222,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -26181,7 +26293,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -26252,7 +26364,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -26323,7 +26435,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -26371,7 +26483,7 @@
         <v>90</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R30" s="1">
         <v>0.5</v>
@@ -26394,7 +26506,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -26465,7 +26577,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -26513,7 +26625,7 @@
         <v>98</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R32" s="1">
         <v>0.5</v>
@@ -26536,7 +26648,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -26607,7 +26719,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -26760,8 +26872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB82F61C-05AA-4FA3-BD74-74225C388CDC}">
   <dimension ref="A2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="R21" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26900,7 +27012,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -26971,7 +27083,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -27042,7 +27154,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -27113,7 +27225,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -27184,7 +27296,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -27255,7 +27367,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -27309,7 +27421,7 @@
         <v>25</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>25</v>
@@ -27326,7 +27438,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -27397,7 +27509,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -27468,7 +27580,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -27522,7 +27634,7 @@
         <v>25</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>25</v>
@@ -27539,7 +27651,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -27610,7 +27722,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -27681,7 +27793,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -27752,7 +27864,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -27823,7 +27935,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -27894,7 +28006,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -27965,7 +28077,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -28036,7 +28148,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -28107,7 +28219,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -28178,7 +28290,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -28249,7 +28361,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -28320,7 +28432,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -28391,7 +28503,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -28462,7 +28574,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -28533,7 +28645,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -28587,7 +28699,7 @@
         <v>25</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T28" s="6" t="s">
         <v>25</v>
@@ -28604,7 +28716,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -28675,7 +28787,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -28729,7 +28841,7 @@
         <v>25</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T30" s="6" t="s">
         <v>25</v>
@@ -28746,7 +28858,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -28817,7 +28929,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -28888,7 +29000,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -28959,7 +29071,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -28989,7 +29101,7 @@
         <v>60.2</v>
       </c>
       <c r="K34" s="1">
-        <v>0.2</v>
+        <v>6.2</v>
       </c>
       <c r="L34" s="6">
         <v>2.8</v>
@@ -29007,7 +29119,7 @@
         <v>81</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>25</v>
@@ -29110,10 +29222,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBA7423-C2C7-4634-AC7C-BDA41601DD7D}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="L21" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29252,7 +29364,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -29323,7 +29435,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -29394,7 +29506,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -29465,7 +29577,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -29536,7 +29648,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -29607,7 +29719,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -29678,7 +29790,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -29749,7 +29861,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -29820,7 +29932,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -29891,7 +30003,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -29962,7 +30074,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -30033,7 +30145,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -30104,7 +30216,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -30175,7 +30287,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -30246,7 +30358,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -30317,7 +30429,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -30388,7 +30500,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -30459,7 +30571,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -30530,7 +30642,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -30578,7 +30690,7 @@
         <v>85</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R23" s="1">
         <v>1</v>
@@ -30601,7 +30713,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -30672,7 +30784,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -30743,7 +30855,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -30814,7 +30926,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -30885,7 +30997,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -30956,7 +31068,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -31027,7 +31139,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -31098,7 +31210,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -31146,13 +31258,13 @@
         <v>78</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R31" s="1">
         <v>2</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T31" s="6">
         <v>1</v>
@@ -31169,7 +31281,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -31217,7 +31329,7 @@
         <v>89</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R32" s="1">
         <v>2</v>
@@ -31240,7 +31352,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -31311,7 +31423,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -31443,6 +31555,11 @@
       </c>
       <c r="W35" s="13">
         <v>2.0049999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="E36" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -31464,8 +31581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0278F3C-D8F2-4AEA-9D02-7DEF220B388F}">
   <dimension ref="A2:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D29" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="K24" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31604,7 +31721,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -31658,7 +31775,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T5" s="6">
         <v>1</v>
@@ -31675,7 +31792,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -31746,7 +31863,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -31794,7 +31911,7 @@
         <v>88</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
@@ -31817,7 +31934,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -31865,7 +31982,7 @@
         <v>95</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
@@ -31888,7 +32005,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -31942,7 +32059,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T9" s="6">
         <v>1</v>
@@ -31959,7 +32076,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -32007,7 +32124,7 @@
         <v>88</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
@@ -32030,7 +32147,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -32101,7 +32218,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -32172,7 +32289,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -32243,7 +32360,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -32314,7 +32431,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -32368,7 +32485,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T15" s="6">
         <v>1</v>
@@ -32385,7 +32502,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -32456,7 +32573,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -32510,7 +32627,7 @@
         <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T17" s="6">
         <v>1</v>
@@ -32527,7 +32644,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -32598,7 +32715,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -32669,7 +32786,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -32717,7 +32834,7 @@
         <v>89</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
@@ -32740,7 +32857,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -32811,7 +32928,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -32859,7 +32976,7 @@
         <v>86</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R22" s="1">
         <v>1</v>
@@ -32882,7 +32999,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -32953,7 +33070,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -33024,7 +33141,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -33095,7 +33212,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -33166,7 +33283,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -33237,7 +33354,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -33308,7 +33425,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -33356,7 +33473,7 @@
         <v>82</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
@@ -33379,7 +33496,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -33433,7 +33550,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T30" s="6">
         <v>1</v>
@@ -33450,7 +33567,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -33504,7 +33621,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T31" s="6">
         <v>1</v>
@@ -33521,7 +33638,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -33569,13 +33686,13 @@
         <v>96</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R32" s="1">
         <v>1</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T32" s="6">
         <v>2</v>
@@ -33592,7 +33709,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -33640,7 +33757,7 @@
         <v>95</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R33" s="1">
         <v>2</v>
@@ -33663,7 +33780,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -33815,10 +33932,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CBB8FD-655A-4863-88F4-7CCF8E717079}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:XFD36"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="L21" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -33963,7 +34080,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -34034,7 +34151,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -34105,7 +34222,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -34159,7 +34276,7 @@
         <v>0.5</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T7" s="6">
         <v>0.5</v>
@@ -34176,7 +34293,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -34247,7 +34364,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -34301,7 +34418,7 @@
         <v>0.5</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T9" s="6">
         <v>0.5</v>
@@ -34318,7 +34435,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -34366,7 +34483,7 @@
         <v>83</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
@@ -34389,7 +34506,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -34437,13 +34554,13 @@
         <v>86</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R11" s="1">
         <v>0.5</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T11" s="6">
         <v>0.5</v>
@@ -34460,7 +34577,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -34508,7 +34625,7 @@
         <v>89</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R12" s="1">
         <v>0.5</v>
@@ -34531,7 +34648,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -34602,7 +34719,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -34656,7 +34773,7 @@
         <v>0.5</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T14" s="6">
         <v>0.5</v>
@@ -34673,7 +34790,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -34721,7 +34838,7 @@
         <v>78</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R15" s="1">
         <v>0.5</v>
@@ -34744,7 +34861,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -34815,7 +34932,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -34863,13 +34980,13 @@
         <v>69</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R17" s="1">
         <v>0.5</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T17" s="6">
         <v>1</v>
@@ -34886,7 +35003,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -34922,7 +35039,7 @@
         <v>5.2</v>
       </c>
       <c r="M18" s="5">
-        <v>0.50900000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="N18" s="6">
         <v>0.28100000000000003</v>
@@ -34934,13 +35051,13 @@
         <v>68</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T18" s="6">
         <v>0.5</v>
@@ -34957,7 +35074,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -35005,13 +35122,13 @@
         <v>77</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R19" s="1">
         <v>0.5</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T19" s="6">
         <v>0.5</v>
@@ -35028,7 +35145,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -35076,13 +35193,13 @@
         <v>74</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R20" s="1">
         <v>2</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T20" s="6">
         <v>1</v>
@@ -35099,7 +35216,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -35147,13 +35264,13 @@
         <v>70</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R21" s="1">
         <v>1</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T21" s="6">
         <v>0.5</v>
@@ -35170,7 +35287,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -35218,13 +35335,13 @@
         <v>82</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R22" s="1">
         <v>0.5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T22" s="6">
         <v>0.5</v>
@@ -35241,7 +35358,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -35312,7 +35429,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -35383,7 +35500,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -35437,7 +35554,7 @@
         <v>0.5</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T25" s="6">
         <v>0.5</v>
@@ -35454,7 +35571,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -35502,13 +35619,13 @@
         <v>93</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R26" s="1">
         <v>0.5</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T26" s="6">
         <v>0.5</v>
@@ -35525,7 +35642,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -35573,13 +35690,13 @@
         <v>93</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R27" s="1">
         <v>0.5</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T27" s="6">
         <v>4</v>
@@ -35596,7 +35713,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -35644,7 +35761,7 @@
         <v>83</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R28" s="1">
         <v>0.5</v>
@@ -35667,7 +35784,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -35738,7 +35855,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -35809,7 +35926,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -35880,7 +35997,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -35928,7 +36045,7 @@
         <v>89</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R32" s="1">
         <v>0.5</v>
@@ -35949,9 +36066,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23 16384:16384">
       <c r="A33" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -35999,13 +36116,13 @@
         <v>83</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R33" s="1">
         <v>4</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T33" s="6">
         <v>2</v>
@@ -36020,9 +36137,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23 16384:16384">
       <c r="A34" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -36070,7 +36187,7 @@
         <v>83</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R34" s="1">
         <v>0.5</v>
@@ -36091,7 +36208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23 16384:16384">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -36155,6 +36272,28 @@
       <c r="W35" s="13">
         <v>2.73</v>
       </c>
+    </row>
+    <row r="36" spans="1:23 16384:16384">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="XFD36"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -36177,8 +36316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85204B69-BD73-463D-846C-48564885D419}">
   <dimension ref="A2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36317,7 +36456,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -36388,7 +36527,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -36459,7 +36598,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -36513,7 +36652,7 @@
         <v>4</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T7" s="6">
         <v>2</v>
@@ -36530,7 +36669,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -36578,7 +36717,7 @@
         <v>82</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
@@ -36601,7 +36740,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -36655,7 +36794,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T9" s="6">
         <v>5</v>
@@ -36672,7 +36811,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -36743,7 +36882,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -36791,7 +36930,7 @@
         <v>90</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -36814,7 +36953,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -36885,7 +37024,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -36956,7 +37095,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -37027,7 +37166,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -37098,7 +37237,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -37169,7 +37308,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -37240,7 +37379,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -37311,7 +37450,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -37382,7 +37521,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -37453,7 +37592,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -37524,7 +37663,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -37595,7 +37734,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -37666,7 +37805,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -37737,7 +37876,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -37808,7 +37947,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -37862,7 +38001,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T26" s="6">
         <v>2</v>
@@ -37879,7 +38018,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -37927,13 +38066,13 @@
         <v>83</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T27" s="6">
         <v>1</v>
@@ -37950,7 +38089,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -38021,7 +38160,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -38092,7 +38231,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -38163,7 +38302,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -38234,7 +38373,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -38305,7 +38444,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -38376,7 +38515,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -38527,10 +38666,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8320C5D-44A6-4787-84A6-B2499FADF3C6}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="M21" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38669,7 +38808,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -38740,7 +38879,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -38788,13 +38927,13 @@
         <v>95</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="T6" s="6">
         <v>1</v>
@@ -38811,7 +38950,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -38859,13 +38998,13 @@
         <v>91</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T7" s="6">
         <v>1</v>
@@ -38882,7 +39021,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -38930,13 +39069,13 @@
         <v>91</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T8" s="6">
         <v>1</v>
@@ -38953,7 +39092,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -39024,7 +39163,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -39095,7 +39234,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -39166,7 +39305,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -39237,7 +39376,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -39308,7 +39447,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -39379,7 +39518,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -39427,13 +39566,13 @@
         <v>97</v>
       </c>
       <c r="Q15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R15" s="1">
-        <v>1</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="T15" s="6">
         <v>1</v>
@@ -39450,7 +39589,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -39521,7 +39660,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -39592,7 +39731,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -39663,7 +39802,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -39734,7 +39873,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -39805,7 +39944,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -39859,7 +39998,7 @@
         <v>2</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T21" s="6">
         <v>1</v>
@@ -39876,7 +40015,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -39947,7 +40086,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -40018,7 +40157,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -40089,7 +40228,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -40160,7 +40299,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -40214,7 +40353,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T26" s="6">
         <v>8</v>
@@ -40231,7 +40370,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -40279,13 +40418,13 @@
         <v>89</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R27" s="1">
         <v>10</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T27" s="6">
         <v>6</v>
@@ -40302,7 +40441,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -40373,7 +40512,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -40444,7 +40583,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -40515,7 +40654,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -40586,7 +40725,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -40634,7 +40773,7 @@
         <v>95</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R32" s="1">
         <v>1</v>
@@ -40657,7 +40796,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -40728,7 +40867,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -40776,7 +40915,7 @@
         <v>97</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R34" s="1">
         <v>1</v>
@@ -40860,6 +40999,14 @@
       </c>
       <c r="W35" s="13">
         <v>2.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -40881,8 +41028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D07B89-795F-47D1-B9D9-3952301305F5}">
   <dimension ref="A2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="O27" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41021,7 +41168,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -41092,7 +41239,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -41163,7 +41310,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -41234,7 +41381,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -41282,7 +41429,7 @@
         <v>81</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
@@ -41305,7 +41452,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -41353,7 +41500,7 @@
         <v>87</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
@@ -41376,7 +41523,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -41430,7 +41577,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T10" s="6">
         <v>1</v>
@@ -41447,7 +41594,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -41518,7 +41665,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -41589,7 +41736,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -41660,7 +41807,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -41731,7 +41878,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -41779,7 +41926,7 @@
         <v>65</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
@@ -41802,7 +41949,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -41873,7 +42020,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -41944,7 +42091,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -42015,7 +42162,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -42069,7 +42216,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T19" s="6">
         <v>1</v>
@@ -42086,7 +42233,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -42134,7 +42281,7 @@
         <v>80</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
@@ -42157,7 +42304,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -42211,7 +42358,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T21" s="6">
         <v>1</v>
@@ -42228,7 +42375,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -42299,7 +42446,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -42353,7 +42500,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T23" s="6">
         <v>2</v>
@@ -42370,7 +42517,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -42441,7 +42588,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -42512,7 +42659,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -42583,7 +42730,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -42654,7 +42801,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -42725,7 +42872,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -42796,7 +42943,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -42867,7 +43014,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -42938,7 +43085,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -43009,7 +43156,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -43063,7 +43210,7 @@
         <v>2</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T33" s="6">
         <v>1</v>
@@ -43080,7 +43227,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -43128,13 +43275,13 @@
         <v>80</v>
       </c>
       <c r="Q34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R34" s="1">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="T34" s="6">
         <v>1</v>
@@ -43233,7 +43380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3123BD-0C11-44C5-98B9-64CC39BFEE8C}">
   <dimension ref="A2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="H28" workbookViewId="0">
       <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
@@ -43373,7 +43520,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -43444,7 +43591,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -43515,7 +43662,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -43586,7 +43733,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -43657,7 +43804,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -43728,7 +43875,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -43799,7 +43946,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -43870,7 +44017,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -43941,7 +44088,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -44012,7 +44159,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -44083,7 +44230,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -44154,7 +44301,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -44225,7 +44372,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -44296,7 +44443,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -44367,7 +44514,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -44438,7 +44585,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -44509,7 +44656,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -44580,7 +44727,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -44651,7 +44798,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -44722,7 +44869,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -44793,7 +44940,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -44864,7 +45011,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -44935,7 +45082,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -45006,7 +45153,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -45077,7 +45224,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -45148,7 +45295,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -45219,7 +45366,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -45290,7 +45437,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -45361,7 +45508,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -45432,7 +45579,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -45583,10 +45730,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2E6BE9-1CB1-46BB-B103-F378C28219E9}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="M21" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45725,7 +45872,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -45796,7 +45943,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -45867,7 +46014,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -45915,7 +46062,7 @@
         <v>77</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
@@ -45938,7 +46085,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -45986,7 +46133,7 @@
         <v>86</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
@@ -46009,7 +46156,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -46063,7 +46210,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T9" s="6">
         <v>1</v>
@@ -46080,7 +46227,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -46128,7 +46275,7 @@
         <v>76</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
@@ -46151,7 +46298,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -46222,7 +46369,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -46293,7 +46440,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -46341,13 +46488,13 @@
         <v>92</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R13" s="1">
         <v>2</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T13" s="6">
         <v>3</v>
@@ -46364,7 +46511,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -46418,7 +46565,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T14" s="6">
         <v>1</v>
@@ -46435,7 +46582,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -46483,7 +46630,7 @@
         <v>88</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R15" s="1">
         <v>2</v>
@@ -46506,7 +46653,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -46577,7 +46724,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -46625,13 +46772,13 @@
         <v>94</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R17" s="1">
         <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T17" s="6">
         <v>1</v>
@@ -46648,7 +46795,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -46719,7 +46866,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -46767,7 +46914,7 @@
         <v>95</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R19" s="1">
         <v>1</v>
@@ -46790,7 +46937,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -46861,7 +47008,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -46932,7 +47079,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -47003,7 +47150,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -47051,7 +47198,7 @@
         <v>89</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R23" s="1">
         <v>1</v>
@@ -47074,7 +47221,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -47145,7 +47292,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -47216,7 +47363,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -47287,7 +47434,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -47358,7 +47505,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -47412,7 +47559,7 @@
         <v>6</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T28" s="6">
         <v>2</v>
@@ -47429,7 +47576,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -47500,7 +47647,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -47554,7 +47701,7 @@
         <v>4</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T30" s="6">
         <v>2</v>
@@ -47571,7 +47718,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -47625,7 +47772,7 @@
         <v>2</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T31" s="6">
         <v>2</v>
@@ -47642,7 +47789,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -47696,7 +47843,7 @@
         <v>3</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T32" s="6">
         <v>3</v>
@@ -47713,7 +47860,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -47761,13 +47908,13 @@
         <v>73</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R33" s="1">
         <v>4</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T33" s="6">
         <v>2</v>
@@ -47784,7 +47931,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -47838,7 +47985,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T34" s="6">
         <v>1</v>
@@ -47916,6 +48063,11 @@
       </c>
       <c r="W35" s="13">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="E36" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -47935,10 +48087,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0FE9D5-A80F-41C9-AEC8-6E2C403BE377}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="I31" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView topLeftCell="L21" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48077,7 +48229,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -48148,7 +48300,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -48219,7 +48371,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -48290,7 +48442,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -48361,7 +48513,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -48432,7 +48584,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -48480,7 +48632,7 @@
         <v>98</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R10" s="1">
         <v>3</v>
@@ -48503,7 +48655,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -48574,7 +48726,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -48625,7 +48777,7 @@
         <v>27</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>26</v>
@@ -48645,7 +48797,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -48696,7 +48848,7 @@
         <v>26</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>23</v>
@@ -48716,7 +48868,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -48787,7 +48939,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -48858,7 +49010,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -48909,7 +49061,7 @@
         <v>27</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>28</v>
@@ -48929,7 +49081,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -48980,13 +49132,13 @@
         <v>36</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T17" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="U17" s="20">
         <v>3</v>
@@ -49000,7 +49152,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -49054,7 +49206,7 @@
         <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T18" s="6">
         <v>1</v>
@@ -49071,7 +49223,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -49142,7 +49294,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -49213,7 +49365,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -49284,7 +49436,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -49355,7 +49507,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -49406,7 +49558,7 @@
         <v>29</v>
       </c>
       <c r="R23" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>30</v>
@@ -49426,7 +49578,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -49483,7 +49635,7 @@
         <v>30</v>
       </c>
       <c r="T24" s="19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U24" s="20">
         <v>6</v>
@@ -49497,7 +49649,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -49568,7 +49720,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -49625,7 +49777,7 @@
         <v>30</v>
       </c>
       <c r="T26" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="U26" s="20">
         <v>8</v>
@@ -49639,7 +49791,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -49690,13 +49842,13 @@
         <v>30</v>
       </c>
       <c r="R27" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T27" s="19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U27" s="20">
         <v>10</v>
@@ -49710,7 +49862,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -49781,7 +49933,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -49832,7 +49984,7 @@
         <v>30</v>
       </c>
       <c r="R29" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>30</v>
@@ -49852,7 +50004,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -49903,7 +50055,7 @@
         <v>27</v>
       </c>
       <c r="R30" s="19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>27</v>
@@ -49923,7 +50075,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -49971,7 +50123,7 @@
         <v>99</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R31" s="1">
         <v>2</v>
@@ -49980,7 +50132,7 @@
         <v>33</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="U31" s="20">
         <v>8</v>
@@ -49994,7 +50146,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -50042,10 +50194,10 @@
         <v>94</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R32" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>24</v>
@@ -50065,7 +50217,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -50116,7 +50268,7 @@
         <v>23</v>
       </c>
       <c r="R33" s="19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>28</v>
@@ -50136,7 +50288,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -50268,6 +50420,11 @@
       </c>
       <c r="W35" s="13">
         <v>1.452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="F36" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -50286,8 +50443,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a11f18feb37c278a512788b2e5a06b2f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d97308c79b2bb5835a55e257627f43a5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a4f56144ecba6ff6a413504c0ec2b8c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dcae21ac380e060fa17aa32c946feec" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
     <xsd:import namespace="502a79df-4f52-4757-ac2f-753e065f4c93"/>
@@ -50319,6 +50476,8 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -50417,6 +50576,16 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="29" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="30" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="31" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -50587,23 +50756,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-40210</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-40210</Url>
-      <Description>H7Q62YT2XCZT-908671883-40210</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50657,20 +50815,31 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-40210</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-40210</Url>
+      <Description>H7Q62YT2XCZT-908671883-40210</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32CC0D71-77E5-43DB-9887-F094F4C739DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF9E1FF2-5C66-45A7-83F3-08210BC85734}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50678,5 +50847,5 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
 </file>